--- a/data/georgia_census/samegrelo/chxorowyu/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/chxorowyu/education_graduates.xlsx
@@ -1845,13 +1845,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97352B3-2DE5-41FE-9922-502397F936A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BFF654A-2831-483A-8F3B-81DD7E2F9E9D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB1F78A2-7B57-4A07-8D81-76A4DA5655B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7561071-3CF3-410B-8E27-FC05138D840D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E82D0751-E842-4223-B8AF-1A000142BBBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0559D9D-B743-4723-A097-1745621ADD80}"/>
 </file>